--- a/Syrah/outputFiles/WestSide Figs/Extras/Daniel Summary_west.xlsx
+++ b/Syrah/outputFiles/WestSide Figs/Extras/Daniel Summary_west.xlsx
@@ -1614,35 +1614,35 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>651900.877504498</v>
+        <v>651965.225194929</v>
       </c>
       <c r="B56" t="n">
-        <v>7017284.03481062</v>
+        <v>7018195.19800035</v>
       </c>
       <c r="C56" t="n">
-        <v>5350140.9299765</v>
+        <v>5350826.45745849</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1149749.0402183</v>
+        <v>1150265.08736286</v>
       </c>
       <c r="B57" t="n">
-        <v>15179776.2913381</v>
+        <v>15187954.4457515</v>
       </c>
       <c r="C57" t="n">
-        <v>8357710.30822576</v>
+        <v>8361277.73648915</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1097398.93753257</v>
+        <v>1097693.81948627</v>
       </c>
       <c r="B58" t="n">
-        <v>10265367.7562423</v>
+        <v>10269050.7000891</v>
       </c>
       <c r="C58" t="n">
-        <v>3596591.21932871</v>
+        <v>3597897.33940622</v>
       </c>
     </row>
   </sheetData>
@@ -2266,35 +2266,35 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1230600.8774759</v>
+        <v>1230665.22516633</v>
       </c>
       <c r="B56" t="n">
-        <v>11291508.0338806</v>
+        <v>11292419.1970704</v>
       </c>
       <c r="C56" t="n">
-        <v>8202448.9291665</v>
+        <v>8203134.45664849</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1920521.04026301</v>
+        <v>1921037.08740757</v>
       </c>
       <c r="B57" t="n">
-        <v>22687030.2909129</v>
+        <v>22695208.4453263</v>
       </c>
       <c r="C57" t="n">
-        <v>9605170.30847876</v>
+        <v>9608737.73674215</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1353472.93759048</v>
+        <v>1353767.81954417</v>
       </c>
       <c r="B58" t="n">
-        <v>12338643.7554543</v>
+        <v>12342326.6993011</v>
       </c>
       <c r="C58" t="n">
-        <v>4306022.21932271</v>
+        <v>4307328.33940023</v>
       </c>
     </row>
   </sheetData>

--- a/Syrah/outputFiles/WestSide Figs/Extras/Daniel Summary_west.xlsx
+++ b/Syrah/outputFiles/WestSide Figs/Extras/Daniel Summary_west.xlsx
@@ -984,13 +984,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>256065.308057903</v>
+        <v>256073.651952103</v>
       </c>
       <c r="B58" t="n">
-        <v>2072705.176212</v>
+        <v>2073253.155855</v>
       </c>
       <c r="C58" t="n">
-        <v>709649.836094002</v>
+        <v>709439.754791002</v>
       </c>
     </row>
   </sheetData>
@@ -1020,629 +1020,629 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45033.8728604394</v>
+        <v>44166.6973284195</v>
       </c>
       <c r="B2" t="n">
-        <v>886745.12838832</v>
+        <v>876593.265626704</v>
       </c>
       <c r="C2" t="n">
-        <v>220460.565743211</v>
+        <v>217576.872352285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>62821.9288907499</v>
+        <v>62522.0897317698</v>
       </c>
       <c r="B3" t="n">
-        <v>1341466.76409383</v>
+        <v>1337692.47896852</v>
       </c>
       <c r="C3" t="n">
-        <v>131921.782061027</v>
+        <v>131502.279272379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>116626.910818587</v>
+        <v>116413.094707269</v>
       </c>
       <c r="B4" t="n">
-        <v>628288.192174985</v>
+        <v>627351.092444653</v>
       </c>
       <c r="C4" t="n">
-        <v>326811.293880351</v>
+        <v>326392.881747785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>104352.213303491</v>
+        <v>103718.422140902</v>
       </c>
       <c r="B5" t="n">
-        <v>1297050.08395211</v>
+        <v>1291938.88850323</v>
       </c>
       <c r="C5" t="n">
-        <v>178848.509208496</v>
+        <v>178007.241912761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>131178.379328876</v>
+        <v>130601.603202106</v>
       </c>
       <c r="B6" t="n">
-        <v>636246.231209972</v>
+        <v>634638.206150318</v>
       </c>
       <c r="C6" t="n">
-        <v>65822.0760488348</v>
+        <v>65626.1725130151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>96806.4220102504</v>
+        <v>96177.7163341392</v>
       </c>
       <c r="B7" t="n">
-        <v>901968.841535132</v>
+        <v>898620.890380168</v>
       </c>
       <c r="C7" t="n">
-        <v>76570.4547020952</v>
+        <v>76097.9535283138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>249013.450584075</v>
+        <v>247666.230463221</v>
       </c>
       <c r="B8" t="n">
-        <v>749331.809818711</v>
+        <v>746947.173301419</v>
       </c>
       <c r="C8" t="n">
-        <v>88913.474835368</v>
+        <v>88586.515124151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>151663.434223124</v>
+        <v>151085.614421515</v>
       </c>
       <c r="B9" t="n">
-        <v>1079017.01894525</v>
+        <v>1076572.85080531</v>
       </c>
       <c r="C9" t="n">
-        <v>413815.366040223</v>
+        <v>412867.714568321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>125491.143604243</v>
+        <v>124271.21322674</v>
       </c>
       <c r="B10" t="n">
-        <v>1219965.42595104</v>
+        <v>1212460.46134181</v>
       </c>
       <c r="C10" t="n">
-        <v>364049.724300013</v>
+        <v>361592.105680964</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68571.4783575974</v>
+        <v>67946.8938093276</v>
       </c>
       <c r="B11" t="n">
-        <v>574041.189001052</v>
+        <v>567947.908796921</v>
       </c>
       <c r="C11" t="n">
-        <v>47855.0280937989</v>
+        <v>47323.5112892576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>56884.0088710896</v>
+        <v>54457.8474825149</v>
       </c>
       <c r="B12" t="n">
-        <v>422389.516859539</v>
+        <v>404586.420934231</v>
       </c>
       <c r="C12" t="n">
-        <v>216342.985270661</v>
+        <v>206524.20626189</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>72221.2374946536</v>
+        <v>71845.3975346311</v>
       </c>
       <c r="B13" t="n">
-        <v>537783.133363428</v>
+        <v>535743.168059236</v>
       </c>
       <c r="C13" t="n">
-        <v>48234.6755328402</v>
+        <v>48004.6131943921</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>116615.378667246</v>
+        <v>116350.719242175</v>
       </c>
       <c r="B14" t="n">
-        <v>505384.490438903</v>
+        <v>503730.772451578</v>
       </c>
       <c r="C14" t="n">
-        <v>222687.634791637</v>
+        <v>221705.20248365</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>123008.993229439</v>
+        <v>121877.323767012</v>
       </c>
       <c r="B15" t="n">
-        <v>902132.131245194</v>
+        <v>894898.972521755</v>
       </c>
       <c r="C15" t="n">
-        <v>567864.912608112</v>
+        <v>563284.649967363</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>74447.7276074081</v>
+        <v>74065.1478453736</v>
       </c>
       <c r="B16" t="n">
-        <v>253830.778223805</v>
+        <v>251063.668230392</v>
       </c>
       <c r="C16" t="n">
-        <v>488928.090454947</v>
+        <v>485194.605008688</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>310243.153932136</v>
+        <v>309051.120600926</v>
       </c>
       <c r="B17" t="n">
-        <v>2446928.73882212</v>
+        <v>2439282.48785292</v>
       </c>
       <c r="C17" t="n">
-        <v>700118.697257538</v>
+        <v>697791.569657284</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>533394.716730377</v>
+        <v>532905.720499392</v>
       </c>
       <c r="B18" t="n">
-        <v>2480970.59425379</v>
+        <v>2479275.68964319</v>
       </c>
       <c r="C18" t="n">
-        <v>497952.620689468</v>
+        <v>497527.925648322</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>408182.204614613</v>
+        <v>405950.995808172</v>
       </c>
       <c r="B19" t="n">
-        <v>3180400.74431007</v>
+        <v>3174301.6073036</v>
       </c>
       <c r="C19" t="n">
-        <v>1726154.84987951</v>
+        <v>1720803.16853379</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>748964.381111369</v>
+        <v>747010.40690046</v>
       </c>
       <c r="B20" t="n">
-        <v>4786368.71742763</v>
+        <v>4775715.2823316</v>
       </c>
       <c r="C20" t="n">
-        <v>2763791.9744242</v>
+        <v>2756920.56711363</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>295155.229377295</v>
+        <v>292969.279319623</v>
       </c>
       <c r="B21" t="n">
-        <v>3133368.64241918</v>
+        <v>3117199.80922503</v>
       </c>
       <c r="C21" t="n">
-        <v>3418654.28132877</v>
+        <v>3402597.79417299</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1007690.56642821</v>
+        <v>1006918.7877821</v>
       </c>
       <c r="B22" t="n">
-        <v>2748782.51597409</v>
+        <v>2745663.48037148</v>
       </c>
       <c r="C22" t="n">
-        <v>1714720.02115168</v>
+        <v>1713078.6035009</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>114997.485388941</v>
+        <v>114920.021421743</v>
       </c>
       <c r="B23" t="n">
-        <v>1347609.38807512</v>
+        <v>1346919.65047578</v>
       </c>
       <c r="C23" t="n">
-        <v>685472.547648608</v>
+        <v>685081.234635998</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>430886.053762171</v>
+        <v>430682.282987009</v>
       </c>
       <c r="B24" t="n">
-        <v>589338.929236893</v>
+        <v>588764.22415035</v>
       </c>
       <c r="C24" t="n">
-        <v>444698.593907607</v>
+        <v>444324.113232843</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>301630.023608539</v>
+        <v>301412.887720594</v>
       </c>
       <c r="B25" t="n">
-        <v>1288414.91366799</v>
+        <v>1287407.95122442</v>
       </c>
       <c r="C25" t="n">
-        <v>1285228.81815943</v>
+        <v>1284096.92688627</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>302437.417418924</v>
+        <v>302208.664540472</v>
       </c>
       <c r="B26" t="n">
-        <v>2182985.99628828</v>
+        <v>2180612.91822632</v>
       </c>
       <c r="C26" t="n">
-        <v>951949.632560707</v>
+        <v>951018.330678165</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>123120.116356631</v>
+        <v>122797.486183625</v>
       </c>
       <c r="B27" t="n">
-        <v>1135905.6518474</v>
+        <v>1133223.51729743</v>
       </c>
       <c r="C27" t="n">
-        <v>557077.871451864</v>
+        <v>555616.327199217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>445077.349200947</v>
+        <v>444984.833304587</v>
       </c>
       <c r="B28" t="n">
-        <v>1913761.75117176</v>
+        <v>1913331.63505934</v>
       </c>
       <c r="C28" t="n">
-        <v>623039.005736196</v>
+        <v>622874.760829224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>510475.929137254</v>
+        <v>510370.314171128</v>
       </c>
       <c r="B29" t="n">
-        <v>2126277.14426027</v>
+        <v>2125682.86752601</v>
       </c>
       <c r="C29" t="n">
-        <v>1052349.47557298</v>
+        <v>1052013.15495633</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>890585.256694241</v>
+        <v>889712.46729964</v>
       </c>
       <c r="B30" t="n">
-        <v>3349431.26511533</v>
+        <v>3346350.80887855</v>
       </c>
       <c r="C30" t="n">
-        <v>1085361.32193125</v>
+        <v>1084218.4272439</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>165873.231712221</v>
+        <v>165427.579448693</v>
       </c>
       <c r="B31" t="n">
-        <v>1788343.81828961</v>
+        <v>1785439.77912881</v>
       </c>
       <c r="C31" t="n">
-        <v>1121861.55135133</v>
+        <v>1120058.07386934</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>311991.610273756</v>
+        <v>311509.208756683</v>
       </c>
       <c r="B32" t="n">
-        <v>3575305.16304155</v>
+        <v>3572005.87719724</v>
       </c>
       <c r="C32" t="n">
-        <v>1790914.59007979</v>
+        <v>1789122.13240323</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>461068.951911164</v>
+        <v>460884.043596132</v>
       </c>
       <c r="B33" t="n">
-        <v>2225721.95020253</v>
+        <v>2224704.40131448</v>
       </c>
       <c r="C33" t="n">
-        <v>873533.377623247</v>
+        <v>873129.201260186</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>711382.316601798</v>
+        <v>711092.097594302</v>
       </c>
       <c r="B34" t="n">
-        <v>3458523.97625655</v>
+        <v>3456451.22314991</v>
       </c>
       <c r="C34" t="n">
-        <v>500198.875405648</v>
+        <v>499858.588055313</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>542204.429242839</v>
+        <v>541924.009539914</v>
       </c>
       <c r="B35" t="n">
-        <v>4312657.10114876</v>
+        <v>4310245.73462574</v>
       </c>
       <c r="C35" t="n">
-        <v>1066780.49506098</v>
+        <v>1066111.35642624</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>81227.9244719055</v>
+        <v>81054.545329304</v>
       </c>
       <c r="B36" t="n">
-        <v>2369924.43026723</v>
+        <v>2366637.89504475</v>
       </c>
       <c r="C36" t="n">
-        <v>405843.055552004</v>
+        <v>405055.873032723</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>210434.842062381</v>
+        <v>210129.70757551</v>
       </c>
       <c r="B37" t="n">
-        <v>2669431.9029499</v>
+        <v>2665249.65772364</v>
       </c>
       <c r="C37" t="n">
-        <v>485004.4864287</v>
+        <v>484027.618427676</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>414081.968593865</v>
+        <v>413781.745245798</v>
       </c>
       <c r="B38" t="n">
-        <v>5893336.97410503</v>
+        <v>5890655.01670094</v>
       </c>
       <c r="C38" t="n">
-        <v>107056.452350232</v>
+        <v>106834.745769522</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>570830.43574366</v>
+        <v>569424.227991098</v>
       </c>
       <c r="B39" t="n">
-        <v>5251102.66698431</v>
+        <v>5240967.83954186</v>
       </c>
       <c r="C39" t="n">
-        <v>900906.074617009</v>
+        <v>898331.796369771</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>409419.880569643</v>
+        <v>409137.372060071</v>
       </c>
       <c r="B40" t="n">
-        <v>3187483.07050982</v>
+        <v>3185366.57863633</v>
       </c>
       <c r="C40" t="n">
-        <v>1197626.37985054</v>
+        <v>1196672.70714851</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>76691.758358133</v>
+        <v>76525.4003643138</v>
       </c>
       <c r="B41" t="n">
-        <v>2579256.40610279</v>
+        <v>2576151.09353224</v>
       </c>
       <c r="C41" t="n">
-        <v>343280.23620942</v>
+        <v>342629.744850412</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>298371.745077673</v>
+        <v>298096.31273891</v>
       </c>
       <c r="B42" t="n">
-        <v>4778360.04279801</v>
+        <v>4773589.91891462</v>
       </c>
       <c r="C42" t="n">
-        <v>1769408.48344935</v>
+        <v>1767566.76805093</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>158774.869305613</v>
+        <v>158703.822169357</v>
       </c>
       <c r="B43" t="n">
-        <v>4889375.69876417</v>
+        <v>4887025.46208332</v>
       </c>
       <c r="C43" t="n">
-        <v>1519349.95562787</v>
+        <v>1518596.3822466</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>435691.446909512</v>
+        <v>435375.329391205</v>
       </c>
       <c r="B44" t="n">
-        <v>4387760.68727181</v>
+        <v>4384984.42559217</v>
       </c>
       <c r="C44" t="n">
-        <v>2568000.66211967</v>
+        <v>2566273.30276828</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>422758.301379438</v>
+        <v>422476.172400131</v>
       </c>
       <c r="B45" t="n">
-        <v>8638603.51129015</v>
+        <v>8632113.19181044</v>
       </c>
       <c r="C45" t="n">
-        <v>2184818.89423227</v>
+        <v>2183416.27032821</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>608004.763547935</v>
+        <v>607222.962164542</v>
       </c>
       <c r="B46" t="n">
-        <v>6273962.01444227</v>
+        <v>6266157.4660383</v>
       </c>
       <c r="C46" t="n">
-        <v>1953894.87476815</v>
+        <v>1951422.10507178</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>835586.220569648</v>
+        <v>834194.492647924</v>
       </c>
       <c r="B47" t="n">
-        <v>5084190.37237305</v>
+        <v>5078094.13736078</v>
       </c>
       <c r="C47" t="n">
-        <v>1418065.44966804</v>
+        <v>1416354.77297003</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1071950.94237295</v>
+        <v>1071159.99338701</v>
       </c>
       <c r="B48" t="n">
-        <v>5358600.03169653</v>
+        <v>5354446.51131345</v>
       </c>
       <c r="C48" t="n">
-        <v>1594889.88039094</v>
+        <v>1593596.76729257</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>890243.956442464</v>
+        <v>889831.090002423</v>
       </c>
       <c r="B49" t="n">
-        <v>7008467.39097184</v>
+        <v>7005322.87435699</v>
       </c>
       <c r="C49" t="n">
-        <v>738048.680771195</v>
+        <v>737554.660031817</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>595294.937069261</v>
+        <v>594478.073727613</v>
       </c>
       <c r="B50" t="n">
-        <v>3857437.74044625</v>
+        <v>3851199.89179602</v>
       </c>
       <c r="C50" t="n">
-        <v>741024.269768664</v>
+        <v>739552.475451351</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>314205.005904979</v>
+        <v>313720.129474899</v>
       </c>
       <c r="B51" t="n">
-        <v>1937419.45917272</v>
+        <v>1933849.30771497</v>
       </c>
       <c r="C51" t="n">
-        <v>606843.734374435</v>
+        <v>605319.056220637</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>306313.974334132</v>
+        <v>305449.073826084</v>
       </c>
       <c r="B52" t="n">
-        <v>2107940.58714202</v>
+        <v>2102694.52709457</v>
       </c>
       <c r="C52" t="n">
-        <v>1118764.33089351</v>
+        <v>1115555.67900542</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1095820.95524473</v>
+        <v>1095586.04799821</v>
       </c>
       <c r="B53" t="n">
-        <v>4403112.10227398</v>
+        <v>4401447.08755395</v>
       </c>
       <c r="C53" t="n">
-        <v>891898.507052099</v>
+        <v>891535.209905081</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>992418.190557347</v>
+        <v>992207.10115219</v>
       </c>
       <c r="B54" t="n">
-        <v>3079371.04459626</v>
+        <v>3078365.11406854</v>
       </c>
       <c r="C54" t="n">
-        <v>1679797.43779675</v>
+        <v>1679301.39549125</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1381577.08642516</v>
+        <v>1381103.7032015</v>
       </c>
       <c r="B55" t="n">
-        <v>5077639.14763012</v>
+        <v>5074867.62884188</v>
       </c>
       <c r="C55" t="n">
-        <v>1896281.0546761</v>
+        <v>1895155.30619885</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>651965.225194929</v>
+        <v>651611.718978125</v>
       </c>
       <c r="B56" t="n">
-        <v>7018195.19800035</v>
+        <v>7013189.55055699</v>
       </c>
       <c r="C56" t="n">
-        <v>5350826.45745849</v>
+        <v>5347060.38248284</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1150265.08736286</v>
+        <v>1149316.01895189</v>
       </c>
       <c r="B57" t="n">
-        <v>15187954.4457515</v>
+        <v>15172913.9051817</v>
       </c>
       <c r="C57" t="n">
-        <v>8361277.73648915</v>
+        <v>8354716.83694954</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1097693.81948627</v>
+        <v>1097397.69336552</v>
       </c>
       <c r="B58" t="n">
-        <v>10269050.7000891</v>
+        <v>10265357.4944078</v>
       </c>
       <c r="C58" t="n">
-        <v>3597897.33940622</v>
+        <v>3596582.97852522</v>
       </c>
     </row>
   </sheetData>
@@ -1672,629 +1672,629 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>137217.872858441</v>
+        <v>136350.697326421</v>
       </c>
       <c r="B2" t="n">
-        <v>1608149.12837632</v>
+        <v>1597997.26561471</v>
       </c>
       <c r="C2" t="n">
-        <v>455281.365763626</v>
+        <v>452397.6723727</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>191353.928851951</v>
+        <v>191054.089692971</v>
       </c>
       <c r="B3" t="n">
-        <v>2417578.76408504</v>
+        <v>2413804.47895973</v>
       </c>
       <c r="C3" t="n">
-        <v>266774.382062744</v>
+        <v>266354.879274096</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>297466.910855627</v>
+        <v>297253.094744309</v>
       </c>
       <c r="B4" t="n">
-        <v>1303444.19225238</v>
+        <v>1302507.09252205</v>
       </c>
       <c r="C4" t="n">
-        <v>582604.793833751</v>
+        <v>582186.381701185</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>310712.213281092</v>
+        <v>310078.422118503</v>
       </c>
       <c r="B5" t="n">
-        <v>2505732.0844986</v>
+        <v>2500620.88904972</v>
       </c>
       <c r="C5" t="n">
-        <v>412426.109221504</v>
+        <v>411584.841925769</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>412950.379265008</v>
+        <v>412373.603138238</v>
       </c>
       <c r="B6" t="n">
-        <v>1152018.23127608</v>
+        <v>1150410.20621642</v>
       </c>
       <c r="C6" t="n">
-        <v>139824.896038137</v>
+        <v>139628.992502317</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>291314.422042154</v>
+        <v>290685.716366042</v>
       </c>
       <c r="B7" t="n">
-        <v>1551312.84148704</v>
+        <v>1547964.89033207</v>
       </c>
       <c r="C7" t="n">
-        <v>218930.854663256</v>
+        <v>218458.353489474</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>761341.450573089</v>
+        <v>759994.230452235</v>
       </c>
       <c r="B8" t="n">
-        <v>1353669.80994701</v>
+        <v>1351285.17342972</v>
       </c>
       <c r="C8" t="n">
-        <v>184718.524837369</v>
+        <v>184391.565126152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>522583.434199227</v>
+        <v>522005.614397618</v>
       </c>
       <c r="B9" t="n">
-        <v>2240981.01905525</v>
+        <v>2238536.85091531</v>
       </c>
       <c r="C9" t="n">
-        <v>866707.166005825</v>
+        <v>865759.514533923</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>336451.143656646</v>
+        <v>335231.213279142</v>
       </c>
       <c r="B10" t="n">
-        <v>2071167.42591044</v>
+        <v>2063662.46130121</v>
       </c>
       <c r="C10" t="n">
-        <v>676748.92432239</v>
+        <v>674291.305703341</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>128589.478360599</v>
+        <v>127964.893812329</v>
       </c>
       <c r="B11" t="n">
-        <v>1004643.1889492</v>
+        <v>998549.908745071</v>
       </c>
       <c r="C11" t="n">
-        <v>87705.5880878004</v>
+        <v>87174.0712832591</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>116392.008868894</v>
+        <v>113965.847480319</v>
       </c>
       <c r="B12" t="n">
-        <v>752863.516875456</v>
+        <v>735060.420950148</v>
       </c>
       <c r="C12" t="n">
-        <v>426943.785272673</v>
+        <v>417125.006263902</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>430973.237531655</v>
+        <v>430597.397571632</v>
       </c>
       <c r="B13" t="n">
-        <v>2246619.13290644</v>
+        <v>2244579.16760224</v>
       </c>
       <c r="C13" t="n">
-        <v>252424.87556654</v>
+        <v>252194.813228092</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>357701.378618746</v>
+        <v>357436.719193675</v>
       </c>
       <c r="B14" t="n">
-        <v>1775500.4905229</v>
+        <v>1773846.77253558</v>
       </c>
       <c r="C14" t="n">
-        <v>1054780.23480749</v>
+        <v>1053797.8024995</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>309128.993223041</v>
+        <v>307997.323760614</v>
       </c>
       <c r="B15" t="n">
-        <v>1719140.1311958</v>
+        <v>1711906.97247236</v>
       </c>
       <c r="C15" t="n">
-        <v>1088167.51258711</v>
+        <v>1083587.24994636</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>170417.72760541</v>
+        <v>170035.147843376</v>
       </c>
       <c r="B16" t="n">
-        <v>815658.778251513</v>
+        <v>812891.668258101</v>
       </c>
       <c r="C16" t="n">
-        <v>1100516.49045411</v>
+        <v>1096783.00500785</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>846397.153883038</v>
+        <v>845205.120551828</v>
       </c>
       <c r="B17" t="n">
-        <v>4714166.73877113</v>
+        <v>4706520.48780193</v>
       </c>
       <c r="C17" t="n">
-        <v>1434158.79729765</v>
+        <v>1431831.66969739</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1392954.71676038</v>
+        <v>1392465.7205294</v>
       </c>
       <c r="B18" t="n">
-        <v>4187322.5943788</v>
+        <v>4185627.6897682</v>
       </c>
       <c r="C18" t="n">
-        <v>1049224.32065461</v>
+        <v>1048799.62561346</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2395712.20506162</v>
+        <v>2393480.99625518</v>
       </c>
       <c r="B19" t="n">
-        <v>6149440.74376707</v>
+        <v>6143341.6067606</v>
       </c>
       <c r="C19" t="n">
-        <v>5395290.84917852</v>
+        <v>5389939.1678328</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1340108.38112797</v>
+        <v>1338154.40691706</v>
       </c>
       <c r="B20" t="n">
-        <v>6019686.71768313</v>
+        <v>6009033.2825871</v>
       </c>
       <c r="C20" t="n">
-        <v>3882664.97444321</v>
+        <v>3875793.56713264</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>718923.229447299</v>
+        <v>716737.279389626</v>
       </c>
       <c r="B21" t="n">
-        <v>4109838.64238118</v>
+        <v>4093669.80918703</v>
       </c>
       <c r="C21" t="n">
-        <v>4083234.08134594</v>
+        <v>4067177.59419015</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1188128.56641691</v>
+        <v>1187356.7877708</v>
       </c>
       <c r="B22" t="n">
-        <v>4109750.5161006</v>
+        <v>4106631.48049799</v>
       </c>
       <c r="C22" t="n">
-        <v>2161565.02117669</v>
+        <v>2159923.60352591</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>299869.485361943</v>
+        <v>299792.021394745</v>
       </c>
       <c r="B23" t="n">
-        <v>2350401.38849813</v>
+        <v>2349711.65089879</v>
       </c>
       <c r="C23" t="n">
-        <v>1341211.74758862</v>
+        <v>1340820.43457601</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>643340.053759614</v>
+        <v>643136.282984451</v>
       </c>
       <c r="B24" t="n">
-        <v>1528338.9291716</v>
+        <v>1527764.22408506</v>
       </c>
       <c r="C24" t="n">
-        <v>996017.79396561</v>
+        <v>995643.313290845</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>609358.023599943</v>
+        <v>609140.887711997</v>
       </c>
       <c r="B25" t="n">
-        <v>2107066.9136844</v>
+        <v>2106059.95124082</v>
       </c>
       <c r="C25" t="n">
-        <v>2380469.8184292</v>
+        <v>2379337.92715604</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>471673.417412825</v>
+        <v>471444.664534373</v>
       </c>
       <c r="B26" t="n">
-        <v>3520157.9960735</v>
+        <v>3517784.91801154</v>
       </c>
       <c r="C26" t="n">
-        <v>1381131.2325417</v>
+        <v>1380199.93065916</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>293574.116382233</v>
+        <v>293251.486209226</v>
       </c>
       <c r="B27" t="n">
-        <v>2002683.6518764</v>
+        <v>2000001.51732644</v>
       </c>
       <c r="C27" t="n">
-        <v>1091537.77146596</v>
+        <v>1090076.22721332</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>906687.349173949</v>
+        <v>906594.833277589</v>
       </c>
       <c r="B28" t="n">
-        <v>3100171.75104536</v>
+        <v>3099741.63493294</v>
       </c>
       <c r="C28" t="n">
-        <v>1190902.3058012</v>
+        <v>1190738.06089422</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>876277.929096256</v>
+        <v>876172.314130129</v>
       </c>
       <c r="B29" t="n">
-        <v>3195717.14387417</v>
+        <v>3195122.86713991</v>
       </c>
       <c r="C29" t="n">
-        <v>1804862.57560438</v>
+        <v>1804526.25498773</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1646711.25668604</v>
+        <v>1645838.46729144</v>
       </c>
       <c r="B30" t="n">
-        <v>4509351.26535153</v>
+        <v>4506270.80911475</v>
       </c>
       <c r="C30" t="n">
-        <v>1630109.52188325</v>
+        <v>1628966.6271959</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>470793.231787922</v>
+        <v>470347.579524395</v>
       </c>
       <c r="B31" t="n">
-        <v>3074593.81816071</v>
+        <v>3071689.77899991</v>
       </c>
       <c r="C31" t="n">
-        <v>1890677.65138533</v>
+        <v>1888874.17390334</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>717555.610306757</v>
+        <v>717073.208789684</v>
       </c>
       <c r="B32" t="n">
-        <v>4751431.16306755</v>
+        <v>4748131.87722324</v>
       </c>
       <c r="C32" t="n">
-        <v>2581841.59009099</v>
+        <v>2580049.13241443</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>906988.951965667</v>
+        <v>906804.043650634</v>
       </c>
       <c r="B33" t="n">
-        <v>3697611.94979757</v>
+        <v>3696594.40090951</v>
       </c>
       <c r="C33" t="n">
-        <v>1436867.47759285</v>
+        <v>1436463.30122979</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1184764.3166048</v>
+        <v>1184474.0975973</v>
       </c>
       <c r="B34" t="n">
-        <v>4940685.97613865</v>
+        <v>4938613.22303201</v>
       </c>
       <c r="C34" t="n">
-        <v>811335.175335448</v>
+        <v>810994.887985113</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>942950.42920514</v>
+        <v>942670.009502215</v>
       </c>
       <c r="B35" t="n">
-        <v>5962255.10153476</v>
+        <v>5959843.73501175</v>
       </c>
       <c r="C35" t="n">
-        <v>1623837.79510498</v>
+        <v>1623168.65647024</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>208931.924433907</v>
+        <v>208758.545291306</v>
       </c>
       <c r="B36" t="n">
-        <v>3882320.43019613</v>
+        <v>3879033.89497365</v>
       </c>
       <c r="C36" t="n">
-        <v>818434.055534706</v>
+        <v>817646.873015425</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>426338.842009284</v>
+        <v>426033.707522413</v>
       </c>
       <c r="B37" t="n">
-        <v>4425199.90269209</v>
+        <v>4421017.65746584</v>
       </c>
       <c r="C37" t="n">
-        <v>992536.786392405</v>
+        <v>991559.918391381</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>859617.968719866</v>
+        <v>859317.745371799</v>
       </c>
       <c r="B38" t="n">
-        <v>7405762.97334557</v>
+        <v>7403081.01594148</v>
       </c>
       <c r="C38" t="n">
-        <v>452028.752389232</v>
+        <v>451807.045808522</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>984146.43577856</v>
+        <v>982740.228025998</v>
       </c>
       <c r="B39" t="n">
-        <v>6551128.66695031</v>
+        <v>6540993.83950786</v>
       </c>
       <c r="C39" t="n">
-        <v>1347192.57464301</v>
+        <v>1344618.29639577</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>819015.880526644</v>
+        <v>818733.372017071</v>
       </c>
       <c r="B40" t="n">
-        <v>4646215.07060012</v>
+        <v>4644098.57872663</v>
       </c>
       <c r="C40" t="n">
-        <v>2094738.57977155</v>
+        <v>2093784.90706951</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>199847.758393133</v>
+        <v>199681.400399314</v>
       </c>
       <c r="B41" t="n">
-        <v>3862938.40636589</v>
+        <v>3859833.09379534</v>
       </c>
       <c r="C41" t="n">
-        <v>692435.536221421</v>
+        <v>691785.044862413</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>492459.745043515</v>
+        <v>492184.312704752</v>
       </c>
       <c r="B42" t="n">
-        <v>6238142.04305181</v>
+        <v>6233371.91916842</v>
       </c>
       <c r="C42" t="n">
-        <v>2411501.38348635</v>
+        <v>2409659.66808793</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>268424.869346614</v>
+        <v>268353.822210358</v>
       </c>
       <c r="B43" t="n">
-        <v>6432767.69863986</v>
+        <v>6430417.46195901</v>
       </c>
       <c r="C43" t="n">
-        <v>2063222.25566858</v>
+        <v>2062468.6822873</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>801403.446965514</v>
+        <v>801087.329447207</v>
       </c>
       <c r="B44" t="n">
-        <v>5884310.68716761</v>
+        <v>5881534.42548797</v>
       </c>
       <c r="C44" t="n">
-        <v>3674703.66164467</v>
+        <v>3672976.30229329</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>728026.301348743</v>
+        <v>727744.172369435</v>
       </c>
       <c r="B45" t="n">
-        <v>12646705.5116432</v>
+        <v>12640215.1921634</v>
       </c>
       <c r="C45" t="n">
-        <v>2733228.89429757</v>
+        <v>2731826.27039351</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1023456.76355794</v>
+        <v>1022674.96217454</v>
       </c>
       <c r="B46" t="n">
-        <v>7802048.01487842</v>
+        <v>7794243.46647445</v>
       </c>
       <c r="C46" t="n">
-        <v>2471935.87476817</v>
+        <v>2469463.10507181</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1890290.22074665</v>
+        <v>1888898.49282493</v>
       </c>
       <c r="B47" t="n">
-        <v>6808866.37214406</v>
+        <v>6802770.13713179</v>
       </c>
       <c r="C47" t="n">
-        <v>1910611.44971344</v>
+        <v>1908900.77301543</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1586138.94242095</v>
+        <v>1585347.99343501</v>
       </c>
       <c r="B48" t="n">
-        <v>6677832.03155753</v>
+        <v>6673678.51117445</v>
       </c>
       <c r="C48" t="n">
-        <v>2079038.88040294</v>
+        <v>2077745.76730458</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1408283.95641326</v>
+        <v>1407871.08997322</v>
       </c>
       <c r="B49" t="n">
-        <v>8812811.39062135</v>
+        <v>8809666.8740065</v>
       </c>
       <c r="C49" t="n">
-        <v>1206744.68070719</v>
+        <v>1206250.65996782</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1016674.93710756</v>
+        <v>1015858.07376591</v>
       </c>
       <c r="B50" t="n">
-        <v>4955443.74019015</v>
+        <v>4949205.89153992</v>
       </c>
       <c r="C50" t="n">
-        <v>1169215.26973739</v>
+        <v>1167743.47542008</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>507531.005932981</v>
+        <v>507046.129502901</v>
       </c>
       <c r="B51" t="n">
-        <v>2701630.45915838</v>
+        <v>2698060.30770063</v>
       </c>
       <c r="C51" t="n">
-        <v>1039281.73435544</v>
+        <v>1037757.05620164</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>693349.974307634</v>
+        <v>692485.073799586</v>
       </c>
       <c r="B52" t="n">
-        <v>3291288.58725062</v>
+        <v>3286042.52720317</v>
       </c>
       <c r="C52" t="n">
-        <v>2012912.33085451</v>
+        <v>2009703.67896642</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1436410.95529523</v>
+        <v>1436176.04804871</v>
       </c>
       <c r="B53" t="n">
-        <v>7167726.10209298</v>
+        <v>7166061.08737295</v>
       </c>
       <c r="C53" t="n">
-        <v>1510375.5071541</v>
+        <v>1510012.21000708</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1643590.19059085</v>
+        <v>1643379.10118569</v>
       </c>
       <c r="B54" t="n">
-        <v>5020845.04505846</v>
+        <v>5019839.11453074</v>
       </c>
       <c r="C54" t="n">
-        <v>2476481.43772175</v>
+        <v>2475985.39541626</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1850807.08642566</v>
+        <v>1850333.70320201</v>
       </c>
       <c r="B55" t="n">
-        <v>6387346.14742675</v>
+        <v>6384574.62863851</v>
       </c>
       <c r="C55" t="n">
-        <v>2576793.0546943</v>
+        <v>2575667.30621705</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1230665.22516633</v>
+        <v>1230311.71894953</v>
       </c>
       <c r="B56" t="n">
-        <v>11292419.1970704</v>
+        <v>11287413.549627</v>
       </c>
       <c r="C56" t="n">
-        <v>8203134.45664849</v>
+        <v>8199368.38167284</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1921037.08740757</v>
+        <v>1920088.0189966</v>
       </c>
       <c r="B57" t="n">
-        <v>22695208.4453263</v>
+        <v>22680167.9047565</v>
       </c>
       <c r="C57" t="n">
-        <v>9608737.73674215</v>
+        <v>9602176.83720255</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1353767.81954417</v>
+        <v>1353471.69331763</v>
       </c>
       <c r="B58" t="n">
-        <v>12342326.6993011</v>
+        <v>12338633.4942628</v>
       </c>
       <c r="C58" t="n">
-        <v>4307328.33940023</v>
+        <v>4306013.97851622</v>
       </c>
     </row>
   </sheetData>
@@ -2940,13 +2940,13 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1342167.20254236</v>
+        <v>1342167.1902491</v>
       </c>
       <c r="B58" t="n">
-        <v>12197440.1761684</v>
+        <v>12197440.0552406</v>
       </c>
       <c r="C58" t="n">
-        <v>4255945.748544</v>
+        <v>4255945.882837</v>
       </c>
     </row>
   </sheetData>

--- a/Syrah/outputFiles/WestSide Figs/Extras/Daniel Summary_west.xlsx
+++ b/Syrah/outputFiles/WestSide Figs/Extras/Daniel Summary_west.xlsx
@@ -993,6 +993,17 @@
         <v>709439.754791002</v>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>323809.204451901</v>
+      </c>
+      <c r="B59" t="n">
+        <v>2243895.849199</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1228072.698399</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1625,24 +1636,35 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1149316.01895189</v>
+        <v>1149316.32227137</v>
       </c>
       <c r="B57" t="n">
-        <v>15172913.9051817</v>
+        <v>15172918.7120943</v>
       </c>
       <c r="C57" t="n">
-        <v>8354716.83694954</v>
+        <v>8354718.93379377</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1097397.69336552</v>
+        <v>1102852.59372615</v>
       </c>
       <c r="B58" t="n">
-        <v>10265357.4944078</v>
+        <v>10267464.1105131</v>
       </c>
       <c r="C58" t="n">
-        <v>3596582.97852522</v>
+        <v>3597165.06696538</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>898133.45050504</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5851856.86129701</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2442312.033493</v>
       </c>
     </row>
   </sheetData>
@@ -2277,24 +2299,35 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1920088.0189966</v>
+        <v>1920088.32231608</v>
       </c>
       <c r="B57" t="n">
-        <v>22680167.9047565</v>
+        <v>22680172.7116691</v>
       </c>
       <c r="C57" t="n">
-        <v>9602176.83720255</v>
+        <v>9602178.93404677</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1353471.69331763</v>
+        <v>1358926.59367825</v>
       </c>
       <c r="B58" t="n">
-        <v>12338633.4942628</v>
+        <v>12340740.1103681</v>
       </c>
       <c r="C58" t="n">
-        <v>4306013.97851622</v>
+        <v>4306596.06695639</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1221947.45055694</v>
+      </c>
+      <c r="B59" t="n">
+        <v>8095742.86049601</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3670371.033892</v>
       </c>
     </row>
   </sheetData>
@@ -2940,13 +2973,24 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1342167.1902491</v>
+        <v>1347502.3239042</v>
       </c>
       <c r="B58" t="n">
-        <v>12197440.0552406</v>
+        <v>12198050.7831206</v>
       </c>
       <c r="C58" t="n">
-        <v>4255945.882837</v>
+        <v>4255997.519754</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>1205082.9590016</v>
+      </c>
+      <c r="B59" t="n">
+        <v>7950445.03944901</v>
+      </c>
+      <c r="C59" t="n">
+        <v>3602937.819464</v>
       </c>
     </row>
   </sheetData>

--- a/Syrah/outputFiles/WestSide Figs/Extras/Daniel Summary_west.xlsx
+++ b/Syrah/outputFiles/WestSide Figs/Extras/Daniel Summary_west.xlsx
@@ -1004,6 +1004,17 @@
         <v>1228072.698399</v>
       </c>
     </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>878968.868545003</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4410596.299419</v>
+      </c>
+      <c r="C60" t="n">
+        <v>4696645.94987</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1658,13 +1669,24 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>898133.45050504</v>
+        <v>888735.007361009</v>
       </c>
       <c r="B59" t="n">
-        <v>5851856.86129701</v>
+        <v>5761028.94391506</v>
       </c>
       <c r="C59" t="n">
-        <v>2442312.033493</v>
+        <v>2397457.90028316</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1143714.92892355</v>
+      </c>
+      <c r="B60" t="n">
+        <v>8257698.23101683</v>
+      </c>
+      <c r="C60" t="n">
+        <v>10373442.6328714</v>
       </c>
     </row>
   </sheetData>
@@ -2321,13 +2343,24 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1221947.45055694</v>
+        <v>1212549.00741291</v>
       </c>
       <c r="B59" t="n">
-        <v>8095742.86049601</v>
+        <v>8004914.94311406</v>
       </c>
       <c r="C59" t="n">
-        <v>3670371.033892</v>
+        <v>3625516.90068216</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2022666.92896855</v>
+      </c>
+      <c r="B60" t="n">
+        <v>12667854.2304358</v>
+      </c>
+      <c r="C60" t="n">
+        <v>15070741.6327414</v>
       </c>
     </row>
   </sheetData>
@@ -2984,13 +3017,24 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1205082.9590016</v>
+        <v>1207044.6538177</v>
       </c>
       <c r="B59" t="n">
-        <v>7950445.03944901</v>
+        <v>7957491.59915901</v>
       </c>
       <c r="C59" t="n">
-        <v>3602937.819464</v>
+        <v>3603507.564969</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>1943192.098233</v>
+      </c>
+      <c r="B60" t="n">
+        <v>12039608.1678099</v>
+      </c>
+      <c r="C60" t="n">
+        <v>14289206.5646278</v>
       </c>
     </row>
   </sheetData>

--- a/Syrah/outputFiles/WestSide Figs/Extras/Daniel Summary_west.xlsx
+++ b/Syrah/outputFiles/WestSide Figs/Extras/Daniel Summary_west.xlsx
@@ -1006,13 +1006,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>878968.868545003</v>
+        <v>878968.868157405</v>
       </c>
       <c r="B60" t="n">
-        <v>4410596.299419</v>
+        <v>4410596.29820635</v>
       </c>
       <c r="C60" t="n">
-        <v>4696645.94987</v>
+        <v>4696645.94899236</v>
       </c>
     </row>
   </sheetData>
@@ -1680,13 +1680,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1143714.92892355</v>
+        <v>1143714.92243703</v>
       </c>
       <c r="B60" t="n">
-        <v>8257698.23101683</v>
+        <v>8257698.18272996</v>
       </c>
       <c r="C60" t="n">
-        <v>10373442.6328714</v>
+        <v>10373442.5755683</v>
       </c>
     </row>
   </sheetData>
@@ -2354,13 +2354,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2022666.92896855</v>
+        <v>2022666.92239443</v>
       </c>
       <c r="B60" t="n">
-        <v>12667854.2304358</v>
+        <v>12667854.1819363</v>
       </c>
       <c r="C60" t="n">
-        <v>15070741.6327414</v>
+        <v>15070741.5755607</v>
       </c>
     </row>
   </sheetData>
@@ -3028,13 +3028,13 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1943192.098233</v>
+        <v>1943192.09774235</v>
       </c>
       <c r="B60" t="n">
-        <v>12039608.1678099</v>
+        <v>12039608.1670534</v>
       </c>
       <c r="C60" t="n">
-        <v>14289206.5646278</v>
+        <v>14289206.5668927</v>
       </c>
     </row>
   </sheetData>

--- a/Syrah/outputFiles/WestSide Figs/Extras/Daniel Summary_west.xlsx
+++ b/Syrah/outputFiles/WestSide Figs/Extras/Daniel Summary_west.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
   <fonts count="1">
     <font>
@@ -348,12 +348,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1006,13 +1006,24 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>878968.868157405</v>
+        <v>878968.868471029</v>
       </c>
       <c r="B60" t="n">
-        <v>4410596.29820635</v>
+        <v>4410596.35098081</v>
       </c>
       <c r="C60" t="n">
-        <v>4696645.94899236</v>
+        <v>4696645.96731127</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>378746.452214836</v>
+      </c>
+      <c r="B61" t="n">
+        <v>3747413.98088953</v>
+      </c>
+      <c r="C61" t="n">
+        <v>3455654.72002602</v>
       </c>
     </row>
   </sheetData>
@@ -1022,12 +1033,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -1482,24 +1493,24 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>298096.31273891</v>
+        <v>298096.32803626</v>
       </c>
       <c r="B42" t="n">
-        <v>4773589.91891462</v>
+        <v>4773590.18384449</v>
       </c>
       <c r="C42" t="n">
-        <v>1767566.76805093</v>
+        <v>1767566.87033872</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>158703.822169357</v>
+        <v>158705.560643679</v>
       </c>
       <c r="B43" t="n">
-        <v>4887025.46208332</v>
+        <v>4887082.97075061</v>
       </c>
       <c r="C43" t="n">
-        <v>1518596.3822466</v>
+        <v>1518614.82166643</v>
       </c>
     </row>
     <row r="44">
@@ -1537,13 +1548,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>834194.492647924</v>
+        <v>834667.767286461</v>
       </c>
       <c r="B47" t="n">
-        <v>5078094.13736078</v>
+        <v>5080167.23898994</v>
       </c>
       <c r="C47" t="n">
-        <v>1416354.77297003</v>
+        <v>1416936.51016396</v>
       </c>
     </row>
     <row r="48">
@@ -1581,46 +1592,46 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>313720.129474899</v>
+        <v>313863.86832332</v>
       </c>
       <c r="B51" t="n">
-        <v>1933849.30771497</v>
+        <v>1934907.65872441</v>
       </c>
       <c r="C51" t="n">
-        <v>605319.056220637</v>
+        <v>605771.038351433</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>305449.073826084</v>
+        <v>305585.210157119</v>
       </c>
       <c r="B52" t="n">
-        <v>2102694.52709457</v>
+        <v>2103520.26295737</v>
       </c>
       <c r="C52" t="n">
-        <v>1115555.67900542</v>
+        <v>1116060.72448932</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1095586.04799821</v>
+        <v>1096126.91850604</v>
       </c>
       <c r="B53" t="n">
-        <v>4401447.08755395</v>
+        <v>4405280.75965445</v>
       </c>
       <c r="C53" t="n">
-        <v>891535.209905081</v>
+        <v>892371.696285627</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>992207.10115219</v>
+        <v>992153.824034883</v>
       </c>
       <c r="B54" t="n">
-        <v>3078365.11406854</v>
+        <v>3078111.22601249</v>
       </c>
       <c r="C54" t="n">
-        <v>1679301.39549125</v>
+        <v>1679176.19875729</v>
       </c>
     </row>
     <row r="55">
@@ -1680,13 +1691,24 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1143714.92243703</v>
+        <v>1144216.44797035</v>
       </c>
       <c r="B60" t="n">
-        <v>8257698.18272996</v>
+        <v>8260160.36212417</v>
       </c>
       <c r="C60" t="n">
-        <v>10373442.5755683</v>
+        <v>10376489.3239696</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2617030.38634555</v>
+      </c>
+      <c r="B61" t="n">
+        <v>8706863.49050612</v>
+      </c>
+      <c r="C61" t="n">
+        <v>12939697.2338306</v>
       </c>
     </row>
   </sheetData>
@@ -1696,12 +1718,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -2156,24 +2178,24 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>492184.312704752</v>
+        <v>492184.328002102</v>
       </c>
       <c r="B42" t="n">
-        <v>6233371.91916842</v>
+        <v>6233372.18409829</v>
       </c>
       <c r="C42" t="n">
-        <v>2409659.66808793</v>
+        <v>2409659.77037572</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>268353.822210358</v>
+        <v>268355.560684681</v>
       </c>
       <c r="B43" t="n">
-        <v>6430417.46195901</v>
+        <v>6430474.9706263</v>
       </c>
       <c r="C43" t="n">
-        <v>2062468.6822873</v>
+        <v>2062487.12170713</v>
       </c>
     </row>
     <row r="44">
@@ -2211,13 +2233,13 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1888898.49282493</v>
+        <v>1889371.76746346</v>
       </c>
       <c r="B47" t="n">
-        <v>6802770.13713179</v>
+        <v>6804843.23876095</v>
       </c>
       <c r="C47" t="n">
-        <v>1908900.77301543</v>
+        <v>1909482.51020936</v>
       </c>
     </row>
     <row r="48">
@@ -2255,46 +2277,46 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>507046.129502901</v>
+        <v>507189.868351323</v>
       </c>
       <c r="B51" t="n">
-        <v>2698060.30770063</v>
+        <v>2699118.65871007</v>
       </c>
       <c r="C51" t="n">
-        <v>1037757.05620164</v>
+        <v>1038209.03833244</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>692485.073799586</v>
+        <v>692621.210130621</v>
       </c>
       <c r="B52" t="n">
-        <v>3286042.52720317</v>
+        <v>3286868.26306597</v>
       </c>
       <c r="C52" t="n">
-        <v>2009703.67896642</v>
+        <v>2010208.72445032</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1436176.04804871</v>
+        <v>1436716.91855654</v>
       </c>
       <c r="B53" t="n">
-        <v>7166061.08737295</v>
+        <v>7169894.75947345</v>
       </c>
       <c r="C53" t="n">
-        <v>1510012.21000708</v>
+        <v>1510848.69638763</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1643379.10118569</v>
+        <v>1643325.82406839</v>
       </c>
       <c r="B54" t="n">
-        <v>5019839.11453074</v>
+        <v>5019585.22647469</v>
       </c>
       <c r="C54" t="n">
-        <v>2475985.39541626</v>
+        <v>2475860.19868229</v>
       </c>
     </row>
     <row r="55">
@@ -2354,13 +2376,24 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2022666.92239443</v>
+        <v>2023168.44794138</v>
       </c>
       <c r="B60" t="n">
-        <v>12667854.1819363</v>
+        <v>12670316.362105</v>
       </c>
       <c r="C60" t="n">
-        <v>15070741.5755607</v>
+        <v>15073788.3242808</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2995798.38626038</v>
+      </c>
+      <c r="B61" t="n">
+        <v>12454475.4913957</v>
+      </c>
+      <c r="C61" t="n">
+        <v>16394969.2338566</v>
       </c>
     </row>
   </sheetData>
@@ -2370,12 +2403,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -3028,13 +3061,24 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1943192.09774235</v>
+        <v>1943383.91943144</v>
       </c>
       <c r="B60" t="n">
-        <v>12039608.1670534</v>
+        <v>12039622.1453228</v>
       </c>
       <c r="C60" t="n">
-        <v>14289206.5668927</v>
+        <v>14289207.767524</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2869435.5151566</v>
+      </c>
+      <c r="B61" t="n">
+        <v>11870098.4776175</v>
+      </c>
+      <c r="C61" t="n">
+        <v>15584696.7552589</v>
       </c>
     </row>
   </sheetData>

--- a/Syrah/outputFiles/WestSide Figs/Extras/Daniel Summary_west.xlsx
+++ b/Syrah/outputFiles/WestSide Figs/Extras/Daniel Summary_west.xlsx
@@ -1026,6 +1026,17 @@
         <v>3455654.72002602</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>542496.807911043</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2648576.01097952</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1772696.96762435</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1702,13 +1713,24 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2617030.38634555</v>
+        <v>2607451.24974441</v>
       </c>
       <c r="B61" t="n">
-        <v>8706863.49050612</v>
+        <v>8662563.8699558</v>
       </c>
       <c r="C61" t="n">
-        <v>12939697.2338306</v>
+        <v>12878273.2515419</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>837363.097061611</v>
+      </c>
+      <c r="B62" t="n">
+        <v>7770320.25330554</v>
+      </c>
+      <c r="C62" t="n">
+        <v>3675944.10295016</v>
       </c>
     </row>
   </sheetData>
@@ -2387,13 +2409,24 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2995798.38626038</v>
+        <v>2986219.24965924</v>
       </c>
       <c r="B61" t="n">
-        <v>12454475.4913957</v>
+        <v>12410175.8708453</v>
       </c>
       <c r="C61" t="n">
-        <v>16394969.2338566</v>
+        <v>16333545.2515679</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1379859.09707265</v>
+      </c>
+      <c r="B62" t="n">
+        <v>10418936.2532851</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5448620.1025745</v>
       </c>
     </row>
   </sheetData>
@@ -3081,6 +3114,17 @@
         <v>15584696.7552589</v>
       </c>
     </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>1364429.12872281</v>
+      </c>
+      <c r="B62" t="n">
+        <v>10253744.6670698</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5357706.06240034</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
